--- a/data_filepath_and_scripts.xlsx
+++ b/data_filepath_and_scripts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365skku-my.sharepoint.com/personal/abbeykim_o365_skku_edu/Documents/STT_구두처방_음성인식/음성 데이터/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\narae\STT_workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DAD494-FCDF-46FD-92EF-1B09FB007C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D1A738-3F12-46D9-887A-0FA36D5D8F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="1215" windowWidth="20565" windowHeight="17295" xr2:uid="{03B1546F-A6D9-4521-9894-479078D70DAB}"/>
+    <workbookView xWindow="4470" yWindow="1515" windowWidth="27555" windowHeight="19005" xr2:uid="{03B1546F-A6D9-4521-9894-479078D70DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>audio_filepath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,30 +418,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D977D838-76D8-498A-A6FE-D79DB46B0E8B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="68.625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
